--- a/results/Winner_determination/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>76.07776529414923</v>
+        <v>76.07776529414922</v>
       </c>
       <c r="H2">
         <v>7.995441040410377</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>76.07776529414923</v>
+        <v>76.07776529414922</v>
       </c>
       <c r="P2">
         <v>7.995441040410377</v>
@@ -678,10 +678,10 @@
         <v>50.06951878004062</v>
       </c>
       <c r="S2">
-        <v>9.515143055853795</v>
+        <v>9.515143055853793</v>
       </c>
       <c r="T2">
-        <v>9.515143055853795</v>
+        <v>9.515143055853793</v>
       </c>
       <c r="U2">
         <v>2.252884535406904</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>60.17749484304089</v>
+        <v>60.17749484304088</v>
       </c>
       <c r="H3">
         <v>14.02702464184723</v>
@@ -743,10 +743,10 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>60.17749484304089</v>
+        <v>60.17749484304088</v>
       </c>
       <c r="P3">
         <v>14.02702464184723</v>
@@ -755,22 +755,22 @@
         <v>1.456312642122724</v>
       </c>
       <c r="R3">
-        <v>25.72273688390457</v>
+        <v>25.72273688390456</v>
       </c>
       <c r="S3">
-        <v>4.290111151834127</v>
+        <v>4.290111151834126</v>
       </c>
       <c r="T3">
-        <v>4.290111151834127</v>
+        <v>4.290111151834126</v>
       </c>
       <c r="U3">
         <v>1.456312642122724</v>
       </c>
       <c r="V3">
-        <v>25.72273688390457</v>
+        <v>25.72273688390456</v>
       </c>
       <c r="W3">
-        <v>53.03434585245282</v>
+        <v>53.03434585245283</v>
       </c>
       <c r="X3">
         <v>99.18481605364649</v>
@@ -986,7 +986,7 @@
         <v>0.6861805095619175</v>
       </c>
       <c r="O6">
-        <v>57.12135520516111</v>
+        <v>57.12135520516112</v>
       </c>
       <c r="P6">
         <v>14.05368642498697</v>
@@ -998,7 +998,7 @@
         <v>23.36027842446729</v>
       </c>
       <c r="S6">
-        <v>4.064510440733991</v>
+        <v>4.064510440733992</v>
       </c>
       <c r="T6">
         <v>3.755707114150426</v>
@@ -1922,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>80.71015725556808</v>
+        <v>80.71015725556806</v>
       </c>
       <c r="H18">
         <v>8.100050628191457</v>
       </c>
       <c r="I18">
-        <v>72.61010662737662</v>
+        <v>72.61010662737661</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>80.71015725556808</v>
+        <v>80.71015725556806</v>
       </c>
       <c r="P18">
         <v>8.100050628191457</v>
@@ -1955,22 +1955,22 @@
         <v>2.298994119684045</v>
       </c>
       <c r="R18">
-        <v>53.98813786402141</v>
+        <v>53.9881378640214</v>
       </c>
       <c r="S18">
-        <v>9.964154665239256</v>
+        <v>9.964154665239255</v>
       </c>
       <c r="T18">
-        <v>9.964154665239256</v>
+        <v>9.964154665239255</v>
       </c>
       <c r="U18">
         <v>2.298994119684045</v>
       </c>
       <c r="V18">
-        <v>53.98813786402141</v>
+        <v>53.9881378640214</v>
       </c>
       <c r="W18">
-        <v>29.6627985695969</v>
+        <v>29.66279856959692</v>
       </c>
       <c r="X18">
         <v>102.2729051969735</v>
@@ -1979,7 +1979,7 @@
         <v>29.66279856959692</v>
       </c>
       <c r="Z18">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2032,22 +2032,22 @@
         <v>48.86718268312983</v>
       </c>
       <c r="Q19">
-        <v>0.8489560662090826</v>
+        <v>0.8489560662090825</v>
       </c>
       <c r="R19">
-        <v>23.85938355811595</v>
+        <v>23.85938355811596</v>
       </c>
       <c r="S19">
-        <v>2.33720568994589</v>
+        <v>2.337205689945889</v>
       </c>
       <c r="T19">
-        <v>2.33720568994589</v>
+        <v>2.337205689945889</v>
       </c>
       <c r="U19">
-        <v>0.8489560662090826</v>
+        <v>0.8489560662090825</v>
       </c>
       <c r="V19">
-        <v>23.85938355811595</v>
+        <v>23.85938355811596</v>
       </c>
       <c r="W19">
         <v>61.06722274649519</v>
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>61.98964514603784</v>
+        <v>61.98964514603786</v>
       </c>
       <c r="H21">
         <v>12.3786085032598</v>
       </c>
       <c r="I21">
-        <v>49.61103664277805</v>
+        <v>49.61103664277806</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>61.98964514603784</v>
+        <v>61.98964514603786</v>
       </c>
       <c r="P21">
         <v>12.3786085032598</v>
@@ -2195,22 +2195,22 @@
         <v>1.610997495151303</v>
       </c>
       <c r="R21">
-        <v>29.66912935056789</v>
+        <v>29.6691293505679</v>
       </c>
       <c r="S21">
-        <v>5.007803997494015</v>
+        <v>5.007803997494016</v>
       </c>
       <c r="T21">
-        <v>5.007803997494015</v>
+        <v>5.007803997494016</v>
       </c>
       <c r="U21">
         <v>1.610997495151303</v>
       </c>
       <c r="V21">
-        <v>29.66912935056789</v>
+        <v>29.6691293505679</v>
       </c>
       <c r="W21">
-        <v>27.1971022670424</v>
+        <v>27.19710226704238</v>
       </c>
       <c r="X21">
         <v>76.80813890982044</v>
@@ -2219,7 +2219,7 @@
         <v>27.1971022670424</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>55.74131436014311</v>
+        <v>55.7413143601431</v>
       </c>
       <c r="H24">
         <v>3.938225027492602</v>
       </c>
       <c r="I24">
-        <v>51.80308933265051</v>
+        <v>51.8030893326505</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>55.74131436014311</v>
+        <v>55.7413143601431</v>
       </c>
       <c r="P24">
         <v>3.938225027492602</v>
@@ -2435,7 +2435,7 @@
         <v>2.649991480804569</v>
       </c>
       <c r="R24">
-        <v>41.36682656030377</v>
+        <v>41.36682656030376</v>
       </c>
       <c r="S24">
         <v>14.15391806486807</v>
@@ -2447,7 +2447,7 @@
         <v>2.649991480804569</v>
       </c>
       <c r="V24">
-        <v>41.36682656030377</v>
+        <v>41.36682656030376</v>
       </c>
       <c r="W24">
         <v>48.70847161828328</v>
@@ -2459,7 +2459,7 @@
         <v>48.70847161828328</v>
       </c>
       <c r="Z24">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2642,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>68.66605101076185</v>
+        <v>68.66605101076186</v>
       </c>
       <c r="H27">
         <v>21.2073235723408</v>
       </c>
       <c r="I27">
-        <v>47.45872743842105</v>
+        <v>47.45872743842106</v>
       </c>
       <c r="J27">
         <v>0.1</v>
@@ -2663,10 +2663,10 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>68.66605101076185</v>
+        <v>68.66605101076186</v>
       </c>
       <c r="P27">
         <v>21.2073235723408</v>
@@ -2675,22 +2675,22 @@
         <v>1.17490834066975</v>
       </c>
       <c r="R27">
-        <v>22.54206608999564</v>
+        <v>22.54206608999565</v>
       </c>
       <c r="S27">
-        <v>3.23784615142658</v>
+        <v>3.237846151426581</v>
       </c>
       <c r="T27">
-        <v>3.23784615142658</v>
+        <v>3.237846151426581</v>
       </c>
       <c r="U27">
         <v>1.17490834066975</v>
       </c>
       <c r="V27">
-        <v>22.54206608999564</v>
+        <v>22.54206608999565</v>
       </c>
       <c r="W27">
-        <v>71.87122083530241</v>
+        <v>71.8712208353024</v>
       </c>
       <c r="X27">
         <v>119.3299482737235</v>
@@ -2746,7 +2746,7 @@
         <v>0.8000175454477687</v>
       </c>
       <c r="O28">
-        <v>70.77689545693585</v>
+        <v>70.77689545693586</v>
       </c>
       <c r="P28">
         <v>13.88645649573229</v>
@@ -2755,10 +2755,10 @@
         <v>1.628618599765338</v>
       </c>
       <c r="R28">
-        <v>34.27469762742174</v>
+        <v>34.27469762742176</v>
       </c>
       <c r="S28">
-        <v>5.096829092338108</v>
+        <v>5.096829092338109</v>
       </c>
       <c r="T28">
         <v>10.83228268373534</v>

--- a/results/Winner_determination/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,64 +639,64 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>76.07776529414922</v>
+        <v>107.5423457079566</v>
       </c>
       <c r="H2">
-        <v>7.995441040410377</v>
+        <v>16.27700106278549</v>
       </c>
       <c r="I2">
-        <v>68.08232425373885</v>
+        <v>91.2653446451711</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>68.08232425373885</v>
+        <v>91.2653446451711</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>76.07776529414922</v>
+        <v>107.5423457079566</v>
       </c>
       <c r="P2">
-        <v>7.995441040410377</v>
+        <v>16.27700106278549</v>
       </c>
       <c r="Q2">
-        <v>2.252884535406904</v>
+        <v>1.88813154986347</v>
       </c>
       <c r="R2">
-        <v>50.06951878004062</v>
+        <v>60.53222540136457</v>
       </c>
       <c r="S2">
-        <v>9.515143055853793</v>
+        <v>6.607012267992861</v>
       </c>
       <c r="T2">
-        <v>9.515143055853793</v>
+        <v>6.607012267992861</v>
       </c>
       <c r="U2">
-        <v>2.252884535406904</v>
+        <v>1.88813154986347</v>
       </c>
       <c r="V2">
-        <v>50.06951878004062</v>
+        <v>60.53222540136457</v>
       </c>
       <c r="W2">
-        <v>85.14091794912082</v>
+        <v>61.95789755768857</v>
       </c>
       <c r="X2">
         <v>153.2232422028597</v>
       </c>
       <c r="Y2">
-        <v>85.14091794912082</v>
+        <v>61.95789755768857</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>60.17749484304088</v>
+        <v>78.22812085729174</v>
       </c>
       <c r="H3">
-        <v>14.02702464184723</v>
+        <v>23.08407558687713</v>
       </c>
       <c r="I3">
-        <v>46.15047020119366</v>
+        <v>55.14404527041461</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K3">
-        <v>46.15047020119367</v>
+        <v>55.1440452704146</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>60.17749484304088</v>
+        <v>78.22812085729174</v>
       </c>
       <c r="P3">
-        <v>14.02702464184723</v>
+        <v>23.08407558687713</v>
       </c>
       <c r="Q3">
-        <v>1.456312642122724</v>
+        <v>1.220486173395156</v>
       </c>
       <c r="R3">
-        <v>25.72273688390456</v>
+        <v>26.97025019102241</v>
       </c>
       <c r="S3">
-        <v>4.290111151834126</v>
+        <v>3.388834894552285</v>
       </c>
       <c r="T3">
-        <v>4.290111151834126</v>
+        <v>3.388834894552285</v>
       </c>
       <c r="U3">
-        <v>1.456312642122724</v>
+        <v>1.220486173395156</v>
       </c>
       <c r="V3">
-        <v>25.72273688390456</v>
+        <v>26.97025019102241</v>
       </c>
       <c r="W3">
-        <v>53.03434585245283</v>
+        <v>44.04077078323188</v>
       </c>
       <c r="X3">
         <v>99.18481605364649</v>
       </c>
       <c r="Y3">
-        <v>53.03434585245282</v>
+        <v>44.04077078323188</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,64 +799,64 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>64.95091210640841</v>
+        <v>76.19036493014275</v>
       </c>
       <c r="H4">
-        <v>13.60863192487301</v>
+        <v>20.27365034811231</v>
       </c>
       <c r="I4">
-        <v>51.34228018153539</v>
+        <v>55.91671458203044</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>51.34228018153539</v>
+        <v>55.91671458203045</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O4">
-        <v>64.95091210640841</v>
+        <v>76.19036493014276</v>
       </c>
       <c r="P4">
-        <v>13.60863192487301</v>
+        <v>20.27365034811231</v>
       </c>
       <c r="Q4">
-        <v>1.562927494463523</v>
+        <v>1.323912979719822</v>
       </c>
       <c r="R4">
-        <v>30.0729751841173</v>
+        <v>29.07616573986329</v>
       </c>
       <c r="S4">
-        <v>4.772773079981328</v>
+        <v>3.758098005139805</v>
       </c>
       <c r="T4">
-        <v>4.772773079981328</v>
+        <v>3.758098005139804</v>
       </c>
       <c r="U4">
-        <v>1.562927494463523</v>
+        <v>1.323912979719822</v>
       </c>
       <c r="V4">
-        <v>30.0729751841173</v>
+        <v>29.07616573986328</v>
       </c>
       <c r="W4">
-        <v>58.75854721961661</v>
+        <v>54.18411281912156</v>
       </c>
       <c r="X4">
         <v>110.100827401152</v>
       </c>
       <c r="Y4">
-        <v>58.75854721961661</v>
+        <v>54.18411281912155</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>64.41199154088162</v>
+        <v>77.52314209674276</v>
       </c>
       <c r="H5">
-        <v>14.62494256635771</v>
+        <v>17.11838541809062</v>
       </c>
       <c r="I5">
-        <v>49.78704897452391</v>
+        <v>60.40475667865213</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K5">
-        <v>49.78704897452391</v>
+        <v>60.40475667865213</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>64.41199154088162</v>
+        <v>77.52314209674276</v>
       </c>
       <c r="P5">
-        <v>14.62494256635771</v>
+        <v>17.11838541809062</v>
       </c>
       <c r="Q5">
-        <v>1.482571353803885</v>
+        <v>1.510423442909613</v>
       </c>
       <c r="R5">
-        <v>28.10452807461489</v>
+        <v>34.54874603840599</v>
       </c>
       <c r="S5">
-        <v>4.404256033733143</v>
+        <v>4.528648012260356</v>
       </c>
       <c r="T5">
-        <v>4.404256033733143</v>
+        <v>4.528648012260356</v>
       </c>
       <c r="U5">
-        <v>1.482571353803885</v>
+        <v>1.510423442909613</v>
       </c>
       <c r="V5">
-        <v>28.10452807461489</v>
+        <v>34.54874603840599</v>
       </c>
       <c r="W5">
-        <v>39.753932513719</v>
+        <v>29.13622480959077</v>
       </c>
       <c r="X5">
         <v>89.54098148824291</v>
       </c>
       <c r="Y5">
-        <v>39.75393251371899</v>
+        <v>29.13622480959078</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>40.27619193977708</v>
+        <v>73.50102720690728</v>
       </c>
       <c r="H6">
-        <v>10.7239970305533</v>
+        <v>20.29465913854897</v>
       </c>
       <c r="I6">
-        <v>29.55219490922378</v>
+        <v>53.20636806835831</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>43.06766878017414</v>
+        <v>53.20636806835832</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.6861805095619175</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O6">
-        <v>57.12135520516112</v>
+        <v>73.50102720690728</v>
       </c>
       <c r="P6">
-        <v>14.05368642498697</v>
+        <v>20.29465913854897</v>
       </c>
       <c r="Q6">
-        <v>1.402293302963398</v>
+        <v>1.286941626916764</v>
       </c>
       <c r="R6">
-        <v>23.36027842446729</v>
+        <v>27.08832641887293</v>
       </c>
       <c r="S6">
-        <v>4.064510440733992</v>
+        <v>3.621693111725869</v>
       </c>
       <c r="T6">
-        <v>3.755707114150426</v>
+        <v>3.621693111725869</v>
       </c>
       <c r="U6">
-        <v>1.323276580177349</v>
+        <v>1.286941626916764</v>
       </c>
       <c r="V6">
-        <v>15.36138079280115</v>
+        <v>27.08832641887293</v>
       </c>
       <c r="W6">
-        <v>63.03726626304265</v>
+        <v>39.38309310390812</v>
       </c>
       <c r="X6">
         <v>92.58946117226643</v>
       </c>
       <c r="Y6">
-        <v>49.52179239209229</v>
+        <v>39.3830931039081</v>
       </c>
       <c r="Z6">
-        <v>1.272919723178447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>62.09671927395502</v>
+        <v>73.50981076706131</v>
       </c>
       <c r="H7">
-        <v>5.102416452669566</v>
+        <v>12.11589169617428</v>
       </c>
       <c r="I7">
-        <v>56.99430282128545</v>
+        <v>61.39391907088703</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
-        <v>56.99430282128545</v>
+        <v>61.39391907088702</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>62.09671927395502</v>
+        <v>73.50981076706131</v>
       </c>
       <c r="P7">
-        <v>5.102416452669566</v>
+        <v>12.11589169617428</v>
       </c>
       <c r="Q7">
-        <v>2.498978916052234</v>
+        <v>1.802900922919429</v>
       </c>
       <c r="R7">
-        <v>44.24347168514618</v>
+        <v>39.55016674986257</v>
       </c>
       <c r="S7">
-        <v>12.17006096032523</v>
+        <v>6.067222504990928</v>
       </c>
       <c r="T7">
-        <v>12.17006096032523</v>
+        <v>6.067222504990928</v>
       </c>
       <c r="U7">
-        <v>2.498978916052234</v>
+        <v>1.802900922919429</v>
       </c>
       <c r="V7">
-        <v>44.24347168514618</v>
+        <v>39.55016674986257</v>
       </c>
       <c r="W7">
-        <v>29.98176083139742</v>
+        <v>25.58214458179584</v>
       </c>
       <c r="X7">
         <v>86.97606365268287</v>
       </c>
       <c r="Y7">
-        <v>29.98176083139742</v>
+        <v>25.58214458179584</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>62.13379920424181</v>
+        <v>66.86999797014144</v>
       </c>
       <c r="H8">
-        <v>7.128199835178229</v>
+        <v>14.90125089819122</v>
       </c>
       <c r="I8">
-        <v>55.00559936906358</v>
+        <v>51.96874707195022</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>55.00559936906357</v>
+        <v>56.10084448358667</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.9263451833983467</v>
       </c>
       <c r="O8">
-        <v>62.13379920424181</v>
+        <v>66.86999797014144</v>
       </c>
       <c r="P8">
-        <v>7.128199835178229</v>
+        <v>10.76915348655477</v>
       </c>
       <c r="Q8">
-        <v>2.165231386463843</v>
+        <v>1.826064516837059</v>
       </c>
       <c r="R8">
-        <v>39.57139735694929</v>
+        <v>36.4356754254169</v>
       </c>
       <c r="S8">
-        <v>8.71661859107914</v>
+        <v>6.209401514578491</v>
       </c>
       <c r="T8">
-        <v>8.71661859107914</v>
+        <v>4.48754258464693</v>
       </c>
       <c r="U8">
-        <v>2.165231386463843</v>
+        <v>1.501305243384286</v>
       </c>
       <c r="V8">
-        <v>39.57139735694929</v>
+        <v>29.59742096551093</v>
       </c>
       <c r="W8">
-        <v>36.25445318587777</v>
+        <v>39.29130548299113</v>
       </c>
       <c r="X8">
         <v>91.26005255494135</v>
       </c>
       <c r="Y8">
-        <v>36.25445318587778</v>
+        <v>35.15920807135468</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
+        <v>1.117525326601511</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,64 +1199,64 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>73.45652613579065</v>
+        <v>80.69962474405794</v>
       </c>
       <c r="H9">
-        <v>12.24184858426232</v>
+        <v>18.12381670768057</v>
       </c>
       <c r="I9">
-        <v>61.21467755152833</v>
+        <v>62.57580803637737</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K9">
-        <v>61.21467755152834</v>
+        <v>62.57580803637738</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O9">
-        <v>73.45652613579065</v>
+        <v>80.69962474405794</v>
       </c>
       <c r="P9">
-        <v>12.24184858426232</v>
+        <v>18.12381670768057</v>
       </c>
       <c r="Q9">
-        <v>1.791833456272518</v>
+        <v>1.49350701173733</v>
       </c>
       <c r="R9">
-        <v>39.27932369162473</v>
+        <v>35.50776070401427</v>
       </c>
       <c r="S9">
-        <v>6.000443938689431</v>
+        <v>4.452683783204384</v>
       </c>
       <c r="T9">
-        <v>6.000443938689431</v>
+        <v>4.452683783204384</v>
       </c>
       <c r="U9">
-        <v>1.791833456272518</v>
+        <v>1.49350701173733</v>
       </c>
       <c r="V9">
-        <v>39.27932369162473</v>
+        <v>35.50776070401427</v>
       </c>
       <c r="W9">
-        <v>44.70109511301585</v>
+        <v>43.3399646281668</v>
       </c>
       <c r="X9">
         <v>105.9157726645442</v>
       </c>
       <c r="Y9">
-        <v>44.70109511301584</v>
+        <v>43.3399646281668</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1279,64 +1279,64 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>68.55325028934591</v>
+        <v>100.7681905072262</v>
       </c>
       <c r="H10">
-        <v>10.16963175352383</v>
+        <v>17.86419366979728</v>
       </c>
       <c r="I10">
-        <v>58.38361853582208</v>
+        <v>82.90399683742891</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>58.38361853582209</v>
+        <v>82.90399683742891</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>68.55325028934591</v>
+        <v>100.7681905072262</v>
       </c>
       <c r="P10">
-        <v>10.16963175352383</v>
+        <v>17.86419366979728</v>
       </c>
       <c r="Q10">
-        <v>1.908204819442514</v>
+        <v>1.730024379644982</v>
       </c>
       <c r="R10">
-        <v>38.97787821179229</v>
+        <v>51.99850626598004</v>
       </c>
       <c r="S10">
-        <v>6.740976659807948</v>
+        <v>5.6407914272444</v>
       </c>
       <c r="T10">
-        <v>6.740976659807948</v>
+        <v>5.6407914272444</v>
       </c>
       <c r="U10">
-        <v>1.908204819442514</v>
+        <v>1.730024379644982</v>
       </c>
       <c r="V10">
-        <v>38.97787821179229</v>
+        <v>51.99850626598004</v>
       </c>
       <c r="W10">
-        <v>61.26729741443573</v>
+        <v>36.74691911282891</v>
       </c>
       <c r="X10">
         <v>119.6509159502578</v>
       </c>
       <c r="Y10">
-        <v>61.26729741443572</v>
+        <v>36.74691911282891</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1359,64 +1359,64 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>77.80095172340448</v>
       </c>
       <c r="H11">
-        <v>17.11336766460317</v>
+        <v>14.9742370992753</v>
       </c>
       <c r="I11">
-        <v>60.68758405880131</v>
+        <v>62.82671462412918</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>60.68758405880132</v>
+        <v>62.82671462412919</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N11">
         <v>0.9999999999999999</v>
       </c>
       <c r="O11">
-        <v>77.80095172340448</v>
+        <v>77.80095172340449</v>
       </c>
       <c r="P11">
-        <v>17.11336766460317</v>
+        <v>14.97423709927529</v>
       </c>
       <c r="Q11">
-        <v>1.514293771172917</v>
+        <v>1.647822466310968</v>
       </c>
       <c r="R11">
-        <v>34.77291800050072</v>
+        <v>38.15183031607619</v>
       </c>
       <c r="S11">
-        <v>4.546209328765015</v>
+        <v>5.195653789078164</v>
       </c>
       <c r="T11">
-        <v>4.546209328765015</v>
+        <v>5.195653789078162</v>
       </c>
       <c r="U11">
-        <v>1.514293771172917</v>
+        <v>1.647822466310968</v>
       </c>
       <c r="V11">
-        <v>34.77291800050072</v>
+        <v>38.15183031607617</v>
       </c>
       <c r="W11">
-        <v>51.43897192949591</v>
+        <v>49.29984136416805</v>
       </c>
       <c r="X11">
         <v>112.1265559882972</v>
       </c>
       <c r="Y11">
-        <v>51.43897192949591</v>
+        <v>49.29984136416804</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1439,67 +1439,67 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>85.95851313091157</v>
+        <v>90.42281685707903</v>
       </c>
       <c r="H12">
-        <v>25.8057510371021</v>
+        <v>23.01019577276032</v>
       </c>
       <c r="I12">
-        <v>60.15276209380947</v>
+        <v>67.41262108431872</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>60.15276209380947</v>
+        <v>67.4126210843187</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>85.95851313091157</v>
+        <v>90.42281685707903</v>
       </c>
       <c r="P12">
-        <v>25.8057510371021</v>
+        <v>23.01019577276032</v>
       </c>
       <c r="Q12">
-        <v>1.203267398902053</v>
+        <v>1.368559222241366</v>
       </c>
       <c r="R12">
-        <v>29.10154316668167</v>
+        <v>35.92180545392829</v>
       </c>
       <c r="S12">
-        <v>3.33098281105344</v>
+        <v>3.929684812335339</v>
       </c>
       <c r="T12">
-        <v>3.33098281105344</v>
+        <v>3.929684812335339</v>
       </c>
       <c r="U12">
-        <v>1.203267398902053</v>
+        <v>1.368559222241366</v>
       </c>
       <c r="V12">
-        <v>29.10154316668167</v>
+        <v>35.92180545392829</v>
       </c>
       <c r="W12">
-        <v>36.93906423855999</v>
+        <v>29.67920524805075</v>
       </c>
       <c r="X12">
         <v>97.09182633236946</v>
       </c>
       <c r="Y12">
-        <v>36.93906423855999</v>
+        <v>29.67920524805076</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>116.0679517772487</v>
+        <v>127.4745501736674</v>
       </c>
       <c r="H13">
-        <v>20.8755495946653</v>
+        <v>24.20824031153096</v>
       </c>
       <c r="I13">
-        <v>95.19240218258335</v>
+        <v>103.2663098621365</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
-        <v>95.19240218258335</v>
+        <v>103.2663098621365</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O13">
-        <v>116.0679517772487</v>
+        <v>127.4745501736674</v>
       </c>
       <c r="P13">
-        <v>20.8755495946653</v>
+        <v>24.20824031153096</v>
       </c>
       <c r="Q13">
-        <v>1.715597212502359</v>
+        <v>1.661223654249771</v>
       </c>
       <c r="R13">
-        <v>59.37836748852082</v>
+        <v>63.05100842885837</v>
       </c>
       <c r="S13">
-        <v>5.559995019575894</v>
+        <v>5.26575036158032</v>
       </c>
       <c r="T13">
-        <v>5.559995019575894</v>
+        <v>5.26575036158032</v>
       </c>
       <c r="U13">
-        <v>1.715597212502359</v>
+        <v>1.661223654249771</v>
       </c>
       <c r="V13">
-        <v>59.37836748852082</v>
+        <v>63.05100842885837</v>
       </c>
       <c r="W13">
-        <v>32.28214799108407</v>
+        <v>24.20824031153097</v>
       </c>
       <c r="X13">
         <v>127.4745501736674</v>
       </c>
       <c r="Y13">
-        <v>32.28214799108407</v>
+        <v>24.20824031153096</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1679,64 +1679,64 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>81.22310343687812</v>
+        <v>92.60956084636231</v>
       </c>
       <c r="H15">
-        <v>15.13062871831667</v>
+        <v>22.98593488044899</v>
       </c>
       <c r="I15">
-        <v>66.09247471856145</v>
+        <v>69.62362596591332</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K15">
-        <v>66.09247471856145</v>
+        <v>69.62362596591333</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O15">
-        <v>81.22310343687812</v>
+        <v>92.60956084636231</v>
       </c>
       <c r="P15">
-        <v>15.13062871831667</v>
+        <v>22.98593488044899</v>
       </c>
       <c r="Q15">
-        <v>1.680478650429678</v>
+        <v>1.39350988326985</v>
       </c>
       <c r="R15">
-        <v>40.66577618985212</v>
+        <v>37.59249853381047</v>
       </c>
       <c r="S15">
-        <v>5.368124811532249</v>
+        <v>4.028966467016865</v>
       </c>
       <c r="T15">
-        <v>5.368124811532249</v>
+        <v>4.028966467016865</v>
       </c>
       <c r="U15">
-        <v>1.680478650429678</v>
+        <v>1.39350988326985</v>
       </c>
       <c r="V15">
-        <v>40.66577618985212</v>
+        <v>37.59249853381047</v>
       </c>
       <c r="W15">
-        <v>29.93391848741283</v>
+        <v>26.40276724006095</v>
       </c>
       <c r="X15">
         <v>96.02639320597427</v>
       </c>
       <c r="Y15">
-        <v>29.93391848741283</v>
+        <v>26.40276724006094</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1759,64 +1759,64 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>86.75536753741616</v>
+        <v>96.86983536886456</v>
       </c>
       <c r="H16">
-        <v>13.37271961686173</v>
+        <v>19.98155173948905</v>
       </c>
       <c r="I16">
-        <v>73.38264792055443</v>
+        <v>76.88828362937551</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K16">
-        <v>73.38264792055443</v>
+        <v>76.88828362937552</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O16">
-        <v>86.75536753741616</v>
+        <v>96.86983536886457</v>
       </c>
       <c r="P16">
-        <v>13.37271961686173</v>
+        <v>19.98155173948905</v>
       </c>
       <c r="Q16">
-        <v>1.869875508232618</v>
+        <v>1.578558739087204</v>
       </c>
       <c r="R16">
-        <v>48.37732703052281</v>
+        <v>45.34623051048196</v>
       </c>
       <c r="S16">
-        <v>6.487488710077034</v>
+        <v>4.847963593208984</v>
       </c>
       <c r="T16">
-        <v>6.487488710077034</v>
+        <v>4.847963593208983</v>
       </c>
       <c r="U16">
-        <v>1.869875508232618</v>
+        <v>1.578558739087203</v>
       </c>
       <c r="V16">
-        <v>48.37732703052281</v>
+        <v>45.34623051048196</v>
       </c>
       <c r="W16">
-        <v>40.39869508175219</v>
+        <v>36.89305937293112</v>
       </c>
       <c r="X16">
         <v>113.7813430023066</v>
       </c>
       <c r="Y16">
-        <v>40.39869508175219</v>
+        <v>36.89305937293111</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>81.10246617235975</v>
+        <v>89.52954893654795</v>
       </c>
       <c r="H17">
-        <v>9.930477145672272</v>
+        <v>12.85050067780935</v>
       </c>
       <c r="I17">
-        <v>71.17198902668748</v>
+        <v>76.6790482587386</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K17">
-        <v>71.17198902668747</v>
+        <v>76.67904825873862</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O17">
-        <v>81.10246617235975</v>
+        <v>89.52954893654795</v>
       </c>
       <c r="P17">
-        <v>9.930477145672272</v>
+        <v>12.85050067780935</v>
       </c>
       <c r="Q17">
-        <v>2.100104841862986</v>
+        <v>1.941185952671197</v>
       </c>
       <c r="R17">
-        <v>50.31694589105142</v>
+        <v>51.73383685818339</v>
       </c>
       <c r="S17">
-        <v>8.167026113916835</v>
+        <v>6.96700861555927</v>
       </c>
       <c r="T17">
-        <v>8.167026113916835</v>
+        <v>6.96700861555927</v>
       </c>
       <c r="U17">
-        <v>2.100104841862986</v>
+        <v>1.941185952671197</v>
       </c>
       <c r="V17">
-        <v>50.31694589105142</v>
+        <v>51.73383685818339</v>
       </c>
       <c r="W17">
-        <v>31.94220755101148</v>
+        <v>26.43514831896036</v>
       </c>
       <c r="X17">
         <v>103.114196577699</v>
       </c>
       <c r="Y17">
-        <v>31.94220755101149</v>
+        <v>26.43514831896034</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1999,64 +1999,64 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>114.2126574186363</v>
+        <v>104.3757205741034</v>
       </c>
       <c r="H19">
-        <v>48.86718268312983</v>
+        <v>19.49027876250511</v>
       </c>
       <c r="I19">
-        <v>65.34547473550646</v>
+        <v>84.88544181159827</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>65.34547473550646</v>
+        <v>84.88544181159828</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O19">
-        <v>114.2126574186363</v>
+        <v>104.3757205741034</v>
       </c>
       <c r="P19">
-        <v>48.86718268312983</v>
+        <v>19.49027876250511</v>
       </c>
       <c r="Q19">
-        <v>0.8489560662090825</v>
+        <v>1.678081270586113</v>
       </c>
       <c r="R19">
-        <v>23.85938355811596</v>
+        <v>52.17917006173617</v>
       </c>
       <c r="S19">
-        <v>2.337205689945889</v>
+        <v>5.35527079145213</v>
       </c>
       <c r="T19">
-        <v>2.337205689945889</v>
+        <v>5.35527079145213</v>
       </c>
       <c r="U19">
-        <v>0.8489560662090825</v>
+        <v>1.678081270586113</v>
       </c>
       <c r="V19">
-        <v>23.85938355811596</v>
+        <v>52.17917006173617</v>
       </c>
       <c r="W19">
-        <v>61.06722274649519</v>
+        <v>41.52725567040338</v>
       </c>
       <c r="X19">
         <v>126.4126974820016</v>
       </c>
       <c r="Y19">
-        <v>61.06722274649519</v>
+        <v>41.52725567040336</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>61.98964514603786</v>
+        <v>61.98964514603784</v>
       </c>
       <c r="H21">
         <v>12.3786085032598</v>
       </c>
       <c r="I21">
-        <v>49.61103664277806</v>
+        <v>49.61103664277805</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>61.98964514603786</v>
+        <v>61.98964514603784</v>
       </c>
       <c r="P21">
         <v>12.3786085032598</v>
@@ -2195,22 +2195,22 @@
         <v>1.610997495151303</v>
       </c>
       <c r="R21">
-        <v>29.6691293505679</v>
+        <v>29.66912935056789</v>
       </c>
       <c r="S21">
-        <v>5.007803997494016</v>
+        <v>5.007803997494015</v>
       </c>
       <c r="T21">
-        <v>5.007803997494016</v>
+        <v>5.007803997494015</v>
       </c>
       <c r="U21">
         <v>1.610997495151303</v>
       </c>
       <c r="V21">
-        <v>29.6691293505679</v>
+        <v>29.66912935056789</v>
       </c>
       <c r="W21">
-        <v>27.19710226704238</v>
+        <v>27.1971022670424</v>
       </c>
       <c r="X21">
         <v>76.80813890982044</v>
@@ -2219,7 +2219,7 @@
         <v>27.1971022670424</v>
       </c>
       <c r="Z21">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2319,64 +2319,64 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>55.05288570134961</v>
+        <v>70.40384294772649</v>
       </c>
       <c r="H23">
-        <v>11.79905192563743</v>
+        <v>25.62917645164402</v>
       </c>
       <c r="I23">
-        <v>43.25383377571218</v>
+        <v>44.77466649608247</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K23">
-        <v>43.25383377571218</v>
+        <v>44.77466649608247</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>55.05288570134961</v>
+        <v>70.40384294772649</v>
       </c>
       <c r="P23">
-        <v>11.79905192563743</v>
+        <v>25.62917645164402</v>
       </c>
       <c r="Q23">
-        <v>1.540275098479072</v>
+        <v>1.010516441342824</v>
       </c>
       <c r="R23">
-        <v>25.08004790899131</v>
+        <v>18.87596231361985</v>
       </c>
       <c r="S23">
-        <v>4.665873669199524</v>
+        <v>2.747019323096913</v>
       </c>
       <c r="T23">
-        <v>4.665873669199524</v>
+        <v>2.747019323096913</v>
       </c>
       <c r="U23">
-        <v>1.540275098479072</v>
+        <v>1.010516441342824</v>
       </c>
       <c r="V23">
-        <v>25.08004790899131</v>
+        <v>18.87596231361985</v>
       </c>
       <c r="W23">
-        <v>56.36369940768942</v>
+        <v>54.84286668731913</v>
       </c>
       <c r="X23">
         <v>99.6175331834016</v>
       </c>
       <c r="Y23">
-        <v>56.36369940768942</v>
+        <v>54.84286668731913</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -2399,64 +2399,64 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>55.7413143601431</v>
+        <v>83.84713101953558</v>
       </c>
       <c r="H24">
-        <v>3.938225027492602</v>
+        <v>13.98988608400409</v>
       </c>
       <c r="I24">
-        <v>51.8030893326505</v>
+        <v>69.85724493553148</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>51.8030893326505</v>
+        <v>69.8572449355315</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O24">
-        <v>55.7413143601431</v>
+        <v>83.84713101953558</v>
       </c>
       <c r="P24">
-        <v>3.938225027492602</v>
+        <v>13.98988608400409</v>
       </c>
       <c r="Q24">
-        <v>2.649991480804569</v>
+        <v>1.790660626083982</v>
       </c>
       <c r="R24">
-        <v>41.36682656030376</v>
+        <v>44.80610676150512</v>
       </c>
       <c r="S24">
-        <v>14.15391806486807</v>
+        <v>5.993410562177888</v>
       </c>
       <c r="T24">
-        <v>14.15391806486807</v>
+        <v>5.993410562177887</v>
       </c>
       <c r="U24">
-        <v>2.649991480804569</v>
+        <v>1.790660626083982</v>
       </c>
       <c r="V24">
-        <v>41.36682656030376</v>
+        <v>44.80610676150512</v>
       </c>
       <c r="W24">
-        <v>48.70847161828328</v>
+        <v>30.6543160154023</v>
       </c>
       <c r="X24">
         <v>100.5115609509338</v>
       </c>
       <c r="Y24">
-        <v>48.70847161828328</v>
+        <v>30.65431601540229</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -2479,64 +2479,64 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>43.9897010807732</v>
+        <v>47.66020109627755</v>
       </c>
       <c r="H25">
-        <v>8.735624553509908</v>
+        <v>11.3093014512611</v>
       </c>
       <c r="I25">
-        <v>35.25407652726329</v>
+        <v>36.35089964501645</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K25">
-        <v>35.25407652726329</v>
+        <v>36.35089964501645</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O25">
-        <v>43.9897010807732</v>
+        <v>47.66020109627755</v>
       </c>
       <c r="P25">
-        <v>8.735624553509908</v>
+        <v>11.3093014512611</v>
       </c>
       <c r="Q25">
-        <v>1.61654609902877</v>
+        <v>1.438471166648505</v>
       </c>
       <c r="R25">
-        <v>21.13253673270691</v>
+        <v>20.08279559244126</v>
       </c>
       <c r="S25">
-        <v>5.035667548589696</v>
+        <v>4.214248006534741</v>
       </c>
       <c r="T25">
-        <v>5.035667548589696</v>
+        <v>4.214248006534741</v>
       </c>
       <c r="U25">
-        <v>1.61654609902877</v>
+        <v>1.438471166648505</v>
       </c>
       <c r="V25">
-        <v>21.13253673270691</v>
+        <v>20.08279559244126</v>
       </c>
       <c r="W25">
-        <v>30.07412493248894</v>
+        <v>28.97730181473579</v>
       </c>
       <c r="X25">
         <v>65.32820145975224</v>
       </c>
       <c r="Y25">
-        <v>30.07412493248894</v>
+        <v>28.97730181473578</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -2559,64 +2559,64 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>47.92694522333416</v>
+        <v>54.40841990665557</v>
       </c>
       <c r="H26">
-        <v>15.48934367229919</v>
+        <v>15.77072330558484</v>
       </c>
       <c r="I26">
-        <v>32.43760155103497</v>
+        <v>38.63769660107073</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K26">
-        <v>32.43760155103497</v>
+        <v>38.63769660107073</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>47.92694522333416</v>
+        <v>54.40841990665557</v>
       </c>
       <c r="P26">
-        <v>15.48934367229919</v>
+        <v>15.77072330558484</v>
       </c>
       <c r="Q26">
-        <v>1.129525594541997</v>
+        <v>1.238363653736125</v>
       </c>
       <c r="R26">
-        <v>14.94199143051592</v>
+        <v>19.10780606630523</v>
       </c>
       <c r="S26">
-        <v>3.094188252084928</v>
+        <v>3.449963508483348</v>
       </c>
       <c r="T26">
-        <v>3.094188252084928</v>
+        <v>3.449963508483348</v>
       </c>
       <c r="U26">
-        <v>1.129525594541997</v>
+        <v>1.238363653736125</v>
       </c>
       <c r="V26">
-        <v>14.94199143051592</v>
+        <v>19.10780606630523</v>
       </c>
       <c r="W26">
-        <v>39.43928858487266</v>
+        <v>33.2391935348369</v>
       </c>
       <c r="X26">
         <v>71.87689013590763</v>
       </c>
       <c r="Y26">
-        <v>39.43928858487266</v>
+        <v>33.2391935348369</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>68.66605101076186</v>
+        <v>87.79588613321481</v>
       </c>
       <c r="H27">
-        <v>21.2073235723408</v>
+        <v>26.28138045160297</v>
       </c>
       <c r="I27">
-        <v>47.45872743842106</v>
+        <v>61.51450568161184</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>47.45872743842106</v>
+        <v>61.51450568161183</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>68.66605101076186</v>
+        <v>87.79588613321481</v>
       </c>
       <c r="P27">
-        <v>21.2073235723408</v>
+        <v>26.28138045160297</v>
       </c>
       <c r="Q27">
-        <v>1.17490834066975</v>
+        <v>1.206153923731928</v>
       </c>
       <c r="R27">
-        <v>22.54206608999565</v>
+        <v>29.81511552881932</v>
       </c>
       <c r="S27">
-        <v>3.237846151426581</v>
+        <v>3.340611665924113</v>
       </c>
       <c r="T27">
-        <v>3.237846151426581</v>
+        <v>3.340611665924113</v>
       </c>
       <c r="U27">
-        <v>1.17490834066975</v>
+        <v>1.206153923731928</v>
       </c>
       <c r="V27">
-        <v>22.54206608999565</v>
+        <v>29.81511552881932</v>
       </c>
       <c r="W27">
-        <v>71.8712208353024</v>
+        <v>57.81544259211162</v>
       </c>
       <c r="X27">
         <v>119.3299482737235</v>
       </c>
       <c r="Y27">
-        <v>71.8712208353024</v>
+        <v>57.81544259211163</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>50.14232012669537</v>
+        <v>88.54532080928152</v>
       </c>
       <c r="H28">
-        <v>4.628970789507183</v>
+        <v>23.05595356214499</v>
       </c>
       <c r="I28">
-        <v>45.51334933718818</v>
+        <v>65.48936724713653</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>56.89043896120356</v>
+        <v>65.48936724713653</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.8000175454477687</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>70.77689545693586</v>
+        <v>88.54532080928152</v>
       </c>
       <c r="P28">
-        <v>13.88645649573229</v>
+        <v>23.05595356214499</v>
       </c>
       <c r="Q28">
-        <v>1.628618599765338</v>
+        <v>1.345590495353627</v>
       </c>
       <c r="R28">
-        <v>34.27469762742176</v>
+        <v>34.46549527259964</v>
       </c>
       <c r="S28">
-        <v>5.096829092338109</v>
+        <v>3.840453641208835</v>
       </c>
       <c r="T28">
-        <v>10.83228268373534</v>
+        <v>3.840453641208835</v>
       </c>
       <c r="U28">
-        <v>2.382530812924609</v>
+        <v>1.345590495353627</v>
       </c>
       <c r="V28">
-        <v>34.48468379905937</v>
+        <v>34.46549527259964</v>
       </c>
       <c r="W28">
-        <v>69.59267488254989</v>
+        <v>49.61665697260153</v>
       </c>
       <c r="X28">
         <v>115.1060242197381</v>
       </c>
       <c r="Y28">
-        <v>58.2155852585345</v>
+        <v>49.61665697260153</v>
       </c>
       <c r="Z28">
-        <v>1.195430305707482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,64 +2799,64 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>63.93058884285929</v>
+        <v>83.27962897683845</v>
       </c>
       <c r="H29">
-        <v>17.4744575447978</v>
+        <v>32.21010866058459</v>
       </c>
       <c r="I29">
-        <v>46.45613129806149</v>
+        <v>51.06952031625386</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>46.45613129806149</v>
+        <v>51.06952031625388</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O29">
-        <v>63.93058884285929</v>
+        <v>83.27962897683847</v>
       </c>
       <c r="P29">
-        <v>17.4744575447978</v>
+        <v>32.21010866058458</v>
       </c>
       <c r="Q29">
-        <v>1.29705769962761</v>
+        <v>0.9499236323255071</v>
       </c>
       <c r="R29">
-        <v>23.79075159276572</v>
+        <v>20.47237689979211</v>
       </c>
       <c r="S29">
-        <v>3.658516361893684</v>
+        <v>2.585512202222016</v>
       </c>
       <c r="T29">
-        <v>3.658516361893684</v>
+        <v>2.585512202222015</v>
       </c>
       <c r="U29">
-        <v>1.29705769962761</v>
+        <v>0.9499236323255066</v>
       </c>
       <c r="V29">
-        <v>23.79075159276572</v>
+        <v>20.4723768997921</v>
       </c>
       <c r="W29">
-        <v>74.08413635519679</v>
+        <v>69.47074733700441</v>
       </c>
       <c r="X29">
         <v>120.5402676532583</v>
       </c>
       <c r="Y29">
-        <v>74.08413635519679</v>
+        <v>69.47074733700441</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>64.22300364073698</v>
+        <v>71.26307887518745</v>
       </c>
       <c r="H31">
-        <v>13.71495657303884</v>
+        <v>20.21562513599132</v>
       </c>
       <c r="I31">
-        <v>50.50804706769814</v>
+        <v>51.04745373919613</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K31">
-        <v>50.50804706769814</v>
+        <v>51.04745373919614</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O31">
-        <v>64.22300364073698</v>
+        <v>71.26307887518746</v>
       </c>
       <c r="P31">
-        <v>13.71495657303884</v>
+        <v>20.21562513599132</v>
       </c>
       <c r="Q31">
-        <v>1.543874500678238</v>
+        <v>1.259922538486377</v>
       </c>
       <c r="R31">
-        <v>29.3338753366741</v>
+        <v>25.57733200076895</v>
       </c>
       <c r="S31">
-        <v>4.682698286262748</v>
+        <v>3.525148413457308</v>
       </c>
       <c r="T31">
-        <v>4.682698286262748</v>
+        <v>3.525148413457307</v>
       </c>
       <c r="U31">
-        <v>1.543874500678238</v>
+        <v>1.259922538486377</v>
       </c>
       <c r="V31">
-        <v>29.3338753366741</v>
+        <v>25.57733200076894</v>
       </c>
       <c r="W31">
-        <v>45.96682078215846</v>
+        <v>45.42741411066048</v>
       </c>
       <c r="X31">
         <v>96.47486784985661</v>
       </c>
       <c r="Y31">
-        <v>45.96682078215847</v>
+        <v>45.42741411066046</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
